--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ntn1-Dcc.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ntn1-Dcc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,123 +519,371 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>43.6049732908475</v>
+        <v>0.9305633333333333</v>
       </c>
       <c r="H2">
-        <v>43.6049732908475</v>
+        <v>2.79169</v>
       </c>
       <c r="I2">
-        <v>0.8533018011709556</v>
+        <v>0.01768777137856805</v>
       </c>
       <c r="J2">
-        <v>0.8533018011709556</v>
+        <v>0.01768777137856806</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.08872069687590731</v>
+        <v>0.092904</v>
       </c>
       <c r="N2">
-        <v>0.08872069687590731</v>
+        <v>0.278712</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9572435868814848</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9572435868814848</v>
       </c>
       <c r="Q2">
-        <v>3.868663617619315</v>
+        <v>0.08645305591999999</v>
       </c>
       <c r="R2">
-        <v>3.868663617619315</v>
+        <v>0.77807750328</v>
       </c>
       <c r="S2">
-        <v>0.8533018011709556</v>
+        <v>0.01693150571836015</v>
       </c>
       <c r="T2">
-        <v>0.8533018011709556</v>
+        <v>0.01693150571836015</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>0.9305633333333333</v>
+      </c>
+      <c r="H3">
+        <v>2.79169</v>
+      </c>
+      <c r="I3">
+        <v>0.01768777137856805</v>
+      </c>
+      <c r="J3">
+        <v>0.01768777137856806</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M3">
+        <v>0.004149666666666667</v>
+      </c>
+      <c r="N3">
+        <v>0.012449</v>
+      </c>
+      <c r="O3">
+        <v>0.04275641311851519</v>
+      </c>
+      <c r="P3">
+        <v>0.04275641311851518</v>
+      </c>
+      <c r="Q3">
+        <v>0.003861527645555556</v>
+      </c>
+      <c r="R3">
+        <v>0.03475374881</v>
+      </c>
+      <c r="S3">
+        <v>0.0007562656602079046</v>
+      </c>
+      <c r="T3">
+        <v>0.0007562656602079046</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>44.154177</v>
+      </c>
+      <c r="H4">
+        <v>132.462531</v>
+      </c>
+      <c r="I4">
+        <v>0.8392647337471152</v>
+      </c>
+      <c r="J4">
+        <v>0.8392647337471153</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.092904</v>
+      </c>
+      <c r="N4">
+        <v>0.278712</v>
+      </c>
+      <c r="O4">
+        <v>0.9572435868814848</v>
+      </c>
+      <c r="P4">
+        <v>0.9572435868814848</v>
+      </c>
+      <c r="Q4">
+        <v>4.102099660008</v>
+      </c>
+      <c r="R4">
+        <v>36.918896940072</v>
+      </c>
+      <c r="S4">
+        <v>0.8033807840752228</v>
+      </c>
+      <c r="T4">
+        <v>0.803380784075223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>44.154177</v>
+      </c>
+      <c r="H5">
+        <v>132.462531</v>
+      </c>
+      <c r="I5">
+        <v>0.8392647337471152</v>
+      </c>
+      <c r="J5">
+        <v>0.8392647337471153</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.004149666666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.012449</v>
+      </c>
+      <c r="O5">
+        <v>0.04275641311851519</v>
+      </c>
+      <c r="P5">
+        <v>0.04275641311851518</v>
+      </c>
+      <c r="Q5">
+        <v>0.183225116491</v>
+      </c>
+      <c r="R5">
+        <v>1.649026048419</v>
+      </c>
+      <c r="S5">
+        <v>0.03588394967189232</v>
+      </c>
+      <c r="T5">
+        <v>0.03588394967189231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>7.49649307311652</v>
-      </c>
-      <c r="H3">
-        <v>7.49649307311652</v>
-      </c>
-      <c r="I3">
-        <v>0.1466981988290444</v>
-      </c>
-      <c r="J3">
-        <v>0.1466981988290444</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.08872069687590731</v>
-      </c>
-      <c r="N3">
-        <v>0.08872069687590731</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>0.6650940895723096</v>
-      </c>
-      <c r="R3">
-        <v>0.6650940895723096</v>
-      </c>
-      <c r="S3">
-        <v>0.1466981988290444</v>
-      </c>
-      <c r="T3">
-        <v>0.1466981988290444</v>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>7.525807</v>
+      </c>
+      <c r="H6">
+        <v>22.577421</v>
+      </c>
+      <c r="I6">
+        <v>0.1430474948743168</v>
+      </c>
+      <c r="J6">
+        <v>0.1430474948743168</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.092904</v>
+      </c>
+      <c r="N6">
+        <v>0.278712</v>
+      </c>
+      <c r="O6">
+        <v>0.9572435868814848</v>
+      </c>
+      <c r="P6">
+        <v>0.9572435868814848</v>
+      </c>
+      <c r="Q6">
+        <v>0.699177573528</v>
+      </c>
+      <c r="R6">
+        <v>6.292598161752001</v>
+      </c>
+      <c r="S6">
+        <v>0.1369312970879018</v>
+      </c>
+      <c r="T6">
+        <v>0.1369312970879018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>7.525807</v>
+      </c>
+      <c r="H7">
+        <v>22.577421</v>
+      </c>
+      <c r="I7">
+        <v>0.1430474948743168</v>
+      </c>
+      <c r="J7">
+        <v>0.1430474948743168</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.004149666666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.012449</v>
+      </c>
+      <c r="O7">
+        <v>0.04275641311851519</v>
+      </c>
+      <c r="P7">
+        <v>0.04275641311851518</v>
+      </c>
+      <c r="Q7">
+        <v>0.03122959044766667</v>
+      </c>
+      <c r="R7">
+        <v>0.281066314029</v>
+      </c>
+      <c r="S7">
+        <v>0.006116197786414973</v>
+      </c>
+      <c r="T7">
+        <v>0.006116197786414972</v>
       </c>
     </row>
   </sheetData>
